--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>索引</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
   <si>
     <t>Name</t>
@@ -101,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +122,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,38 +185,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +211,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -190,45 +242,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,31 +259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +274,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,49 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,109 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,30 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,19 +495,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +527,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,159 +570,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -1091,7 +1087,7 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,192 +1109,225 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>100001</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>100002</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>100003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="b">
+      <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>100004</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>0.5</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
         <v>100101</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
         <v>100102</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
         <v>100103</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="b">
+      <c r="G10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
         <v>100104</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <v>0.5</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -78,28 +78,19 @@
     <t>Value_4</t>
   </si>
   <si>
-    <t>最小背景音量</t>
-  </si>
-  <si>
-    <t>最大背景音量</t>
-  </si>
-  <si>
     <t>背景音乐开关</t>
   </si>
   <si>
     <t>当前背景音乐音量</t>
   </si>
   <si>
-    <t>最小特效音量</t>
-  </si>
-  <si>
-    <t>最大特效音量</t>
-  </si>
-  <si>
     <t>特效音开关</t>
   </si>
   <si>
     <t>当前特效音音量</t>
+  </si>
+  <si>
+    <t>语言切换</t>
   </si>
 </sst>
 </file>
@@ -107,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,6 +113,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,6 +151,68 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,96 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -243,23 +236,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +463,48 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,57 +527,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,6 +547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,18 +1061,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="22.9583333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.2416666666667" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
@@ -1167,7 +1158,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>100001</v>
@@ -1176,18 +1167,20 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>100002</v>
@@ -1200,17 +1193,17 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>100003</v>
+        <v>100101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -1225,14 +1218,13 @@
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>100004</v>
+        <v>100102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -1245,89 +1237,25 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100101</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>100200</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>0</v>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100103</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100104</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,10 +112,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,14 +157,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -142,61 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +187,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,30 +211,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -251,6 +236,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +463,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,26 +485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,11 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,8 +540,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD35"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,6 +109,134 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,42 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -163,98 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -265,13 +265,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,109 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,25 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,8 +461,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -483,15 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -503,6 +496,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,18 +543,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="GameConfig" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,6 +112,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -119,6 +149,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,61 +202,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,58 +232,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,19 +265,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,97 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,61 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +461,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +492,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -496,15 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,24 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -112,24 +112,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,14 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +163,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -174,35 +190,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,41 +203,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,79 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,85 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +463,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,20 +505,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,21 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Config/ExcelTools/GameConfig.xlsx
+++ b/Config/ExcelTools/GameConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>语言切换</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>分辨率</t>
   </si>
 </sst>
 </file>
@@ -112,6 +118,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -123,6 +144,52 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,123 +201,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,35 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,7 +484,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +509,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +551,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -1256,6 +1262,40 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>100201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>100202</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
